--- a/lp-change-title-gouvernance/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-change-title-gouvernance/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T10:38:17+00:00</t>
+    <t>2024-11-14T10:39:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-change-title-gouvernance/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-change-title-gouvernance/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T10:39:59+00:00</t>
+    <t>2024-11-14T10:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
